--- a/4_Data_Extraction/4_2_Open_Data/Paper_6/CodeBook_P6_Exp1_Clean.xlsx
+++ b/4_Data_Extraction/4_2_Open_Data/Paper_6/CodeBook_P6_Exp1_Clean.xlsx
@@ -47,7 +47,7 @@
     <t>Participant number</t>
   </si>
   <si>
-    <t>Serial number (e.g., 1, 2, 3...)</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Categorical</t>
@@ -126,19 +126,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -605,144 +599,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,14 +1272,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="46.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="33.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="19.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1306,115 +1297,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="17" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
